--- a/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +945,14 @@
         <v>493</v>
       </c>
     </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,6 +953,14 @@
         <v>520</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ID_Dia</t>
   </si>
@@ -27,22 +26,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,26 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -364,18 +376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -386,582 +392,590 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="n">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="n">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="n">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="n">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="n">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="n">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="n">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>740</v>
       </c>
     </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Recuperados_COVID-19_Chile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>ID_Dia</t>
   </si>
@@ -26,26 +27,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,35 +57,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -376,12 +364,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -392,590 +386,606 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>790</v>
       </c>
     </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>959</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>